--- a/data/trans_dic/P19_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19_1_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se siente optimista con el futuro (en desacuerdo, muy en desacuerdo)</t>
+          <t>Población que se siente optimista con el futuro (en desacuerdo, muy en desacuerdo) (tasa de respuesta: 98,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -680,77 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15,06%</t>
+          <t>84,94%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>17,62%</t>
+          <t>82,7%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,2%</t>
+          <t>83,69%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18,52%</t>
+          <t>78,76%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>93,63%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>21,43%</t>
+          <t>91,87%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>18,85%</t>
+          <t>88,8%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>15,5%</t>
+          <t>78,57%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>13,55%</t>
+          <t>81,77%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>84,1%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>18,05%</t>
+          <t>86,18%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>18,21%</t>
+          <t>85,68%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>15,35%</t>
+          <t>88,85%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>16,03%</t>
+          <t>83,34%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>9,55%</t>
+          <t>81,95%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>82,25%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>83,89%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>82,49%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>89,63%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>90,45%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>86,27%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,08; 21,79</t>
+          <t>78,44; 89,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,72; 24,8</t>
+          <t>74,8; 88,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,63; 25,17</t>
+          <t>73,79; 90,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,13; 26,64</t>
+          <t>68,94; 85,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,69; 14,18</t>
+          <t>86,98; 97,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,03; 28,32</t>
+          <t>85,77; 96,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,05; 25,34</t>
+          <t>81,47; 94,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,04; 21,36</t>
+          <t>71,5; 84,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,34; 19,56</t>
+          <t>75,49; 88,22</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,07; 17,51</t>
+          <t>77,44; 88,38</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>14,32; 22,69</t>
+          <t>80,98; 91,21</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>13,89; 23,16</t>
+          <t>78,69; 91,44</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>11,4; 20,48</t>
+          <t>81,42; 93,39</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>12,11; 21,48</t>
+          <t>75,61; 89,51</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>6,16; 13,42</t>
+          <t>77,4; 85,45</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>76,64; 86,01</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>78,61; 88,04</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>77,15; 86,75</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>84,9; 93,05</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>85,93; 93,38</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>81,12; 90,59</t>
         </is>
       </c>
     </row>
@@ -850,77 +959,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>23,28%</t>
+          <t>76,72%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,58%</t>
+          <t>83,71%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>81,23%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,93%</t>
+          <t>80,17%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>10,85%</t>
+          <t>91,22%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>19,0%</t>
+          <t>89,16%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>86,6%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>16,96%</t>
+          <t>81,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>81,26%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>11,65%</t>
+          <t>83,39%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>21,2%</t>
+          <t>88,35%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>17,74%</t>
+          <t>89,2%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>17,82%</t>
+          <t>88,34%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>15,5%</t>
+          <t>87,17%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>11,24%</t>
+          <t>78,8%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>82,55%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>82,26%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>83,96%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>90,24%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>88,76%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>86,88%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,0; 32,87</t>
+          <t>67,72; 83,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,87; 25,46</t>
+          <t>74,58; 89,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,61; 25,07</t>
+          <t>75,46; 86,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,56; 31,34</t>
+          <t>66,33; 88,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,11; 17,48</t>
+          <t>85,46; 95,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,16; 24,96</t>
+          <t>82,95; 94,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,76; 25,42</t>
+          <t>78,34; 92,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,32; 22,82</t>
+          <t>75,23; 86,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,66; 17,26</t>
+          <t>75,51; 86,27</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,92; 17,06</t>
+          <t>78,14; 87,42</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16,93; 26,82</t>
+          <t>82,88; 92,04</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,74; 22,7</t>
+          <t>82,97; 93,24</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>14,47; 21,87</t>
+          <t>82,49; 92,52</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>10,69; 23,8</t>
+          <t>80,31; 91,8</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>7,74; 15,63</t>
+          <t>73,65; 83,23</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>77,41; 86,91</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>78,05; 85,52</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>74,83; 88,82</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>86,34; 93,34</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>84,3; 92,08</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>81,8; 90,8</t>
         </is>
       </c>
     </row>
@@ -1020,77 +1189,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>20,45%</t>
+          <t>79,55%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>22,96%</t>
+          <t>78,78%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,92%</t>
+          <t>85,94%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,61%</t>
+          <t>88,98%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>17,19%</t>
+          <t>84,7%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,18%</t>
+          <t>82,8%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>16,02%</t>
+          <t>86,48%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>19,72%</t>
+          <t>79,82%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>12,04%</t>
+          <t>83,62%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>80,23%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>20,31%</t>
+          <t>87,75%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>19,49%</t>
+          <t>89,53%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>16,89%</t>
+          <t>88,61%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>88,91%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>14,45%</t>
+          <t>79,69%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>81,24%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>83,02%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>88,35%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>87,18%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>85,55%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>87,63%</t>
         </is>
       </c>
     </row>
@@ -1103,77 +1302,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,78; 26,52</t>
+          <t>73,12; 83,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,87; 32,69</t>
+          <t>72,27; 83,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,87; 19,09</t>
+          <t>80,96; 89,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,1; 16,12</t>
+          <t>84,62; 92,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,14; 23,22</t>
+          <t>76,97; 89,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,84; 24,35</t>
+          <t>76,39; 88,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,19; 20,95</t>
+          <t>80,91; 90,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,9; 24,33</t>
+          <t>75,13; 84,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,16; 15,92</t>
+          <t>78,59; 87,65</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,98; 15,94</t>
+          <t>75,88; 84,01</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17,09; 23,86</t>
+          <t>84,2; 90,84</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>16,26; 25,18</t>
+          <t>85,66; 92,8</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>13,89; 19,97</t>
+          <t>84,23; 92,31</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>9,42; 14,83</t>
+          <t>84,23; 92,5</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>11,52; 18,5</t>
+          <t>76,08; 83,16</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>77,29; 84,47</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>79,65; 85,74</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>85,55; 90,63</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>82,59; 90,13</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>81,9; 88,78</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>84,2; 90,44</t>
         </is>
       </c>
     </row>
@@ -1190,77 +1419,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20,2%</t>
+          <t>79,8%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,73%</t>
+          <t>84,15%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,03%</t>
+          <t>82,94%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,9%</t>
+          <t>83,86%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,63%</t>
+          <t>87,67%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>25,26%</t>
+          <t>81,37%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>20,41%</t>
+          <t>83,02%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>18,46%</t>
+          <t>74,74%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14,66%</t>
+          <t>78,98%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>20,24%</t>
+          <t>81,4%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>22,86%</t>
+          <t>85,14%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>18,15%</t>
+          <t>83,95%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>17,76%</t>
+          <t>79,76%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>15,27%</t>
+          <t>84,71%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>19,39%</t>
+          <t>77,14%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>81,51%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>82,15%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>84,51%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>85,81%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>80,61%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>83,84%</t>
         </is>
       </c>
     </row>
@@ -1273,77 +1532,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,79; 27,8</t>
+          <t>72,4; 84,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,87; 20,36</t>
+          <t>79,6; 88,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,96; 21,17</t>
+          <t>78,16; 87,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,46; 22,93</t>
+          <t>76,75; 88,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,75; 24,75</t>
+          <t>82,8; 91,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,69; 29,71</t>
+          <t>75,54; 86,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,26; 25,58</t>
+          <t>77,26; 88,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,84; 23,04</t>
+          <t>69,69; 79,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,33; 18,6</t>
+          <t>74,3; 84,09</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>15,1; 25,96</t>
+          <t>77,33; 85,16</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>19,76; 26,59</t>
+          <t>81,18; 88,5</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,98; 21,69</t>
+          <t>79,15; 88,04</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>14,82; 20,74</t>
+          <t>74,37; 84,66</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>12,07; 18,85</t>
+          <t>80,11; 89,07</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>15,91; 23,76</t>
+          <t>72,96; 80,48</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>77,98; 84,68</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>78,96; 85,16</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>80,88; 87,32</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>82,45; 88,62</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>76,65; 84,26</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>79,96; 86,85</t>
         </is>
       </c>
     </row>
@@ -1360,77 +1649,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>18,55%</t>
+          <t>81,45%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>21,46%</t>
+          <t>78,31%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>14,67%</t>
+          <t>85,28%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
+          <t>87,58%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>21,52%</t>
+          <t>85,77%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>23,21%</t>
+          <t>78,48%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>22,3%</t>
+          <t>77,26%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>25,07%</t>
+          <t>76,79%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>11,28%</t>
+          <t>77,44%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>24,89%</t>
+          <t>75,02%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>20,85%</t>
+          <t>88,45%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>21,89%</t>
+          <t>87,49%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>19,86%</t>
+          <t>75,1%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>11,66%</t>
+          <t>79,59%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>23,28%</t>
+          <t>79,15%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>77,87%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>80,16%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>88,02%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>86,65%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>76,72%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>78,43%</t>
         </is>
       </c>
     </row>
@@ -1443,77 +1762,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,01; 24,39</t>
+          <t>75,22; 86,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,9; 27,51</t>
+          <t>72,15; 83,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,97; 19,12</t>
+          <t>80,63; 89,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,96; 16,3</t>
+          <t>83,19; 91,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,21; 28,27</t>
+          <t>80,04; 90,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,68; 29,11</t>
+          <t>71,44; 84,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,96; 28,41</t>
+          <t>71,22; 83,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>19,64; 30,72</t>
+          <t>70,74; 82,09</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,53; 15,36</t>
+          <t>71,67; 82,67</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>19,29; 31,28</t>
+          <t>68,88; 80,58</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17,27; 25,22</t>
+          <t>83,75; 91,76</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,15; 25,73</t>
+          <t>82,35; 91,57</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>16,25; 23,32</t>
+          <t>68,9; 80,51</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,97; 14,62</t>
+          <t>73,28; 84,85</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>19,08; 27,51</t>
+          <t>75,07; 82,8</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>73,59; 81,67</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>76,33; 83,48</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>85,14; 90,5</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>83,04; 90,17</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>72,13; 80,9</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>74,05; 82,4</t>
         </is>
       </c>
     </row>
@@ -1530,77 +1879,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>14,7%</t>
+          <t>85,29%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>17,38%</t>
+          <t>82,56%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>17,78%</t>
+          <t>82,23%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>12,09%</t>
+          <t>88,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>13,52%</t>
+          <t>88,14%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>21,27%</t>
+          <t>86,5%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>26,01%</t>
+          <t>84,71%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>23,28%</t>
+          <t>78,73%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>22,09%</t>
+          <t>72,84%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>17,69%</t>
+          <t>76,45%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>18,38%</t>
+          <t>76,56%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>22,29%</t>
+          <t>79,95%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>20,84%</t>
+          <t>82,31%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>17,76%</t>
+          <t>72,73%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>15,91%</t>
+          <t>81,62%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>77,06%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>79,01%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>81,53%</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>83,62%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>84,1%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>77,75%</t>
         </is>
       </c>
     </row>
@@ -1613,77 +1992,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,13; 20,41</t>
+          <t>79,75; 89,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,16; 23,8</t>
+          <t>75,86; 88,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>12,29; 26,46</t>
+          <t>75,27; 88,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,54; 17,84</t>
+          <t>82,34; 92,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,25; 20,09</t>
+          <t>80,68; 93,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>16,59; 27,14</t>
+          <t>79,12; 91,58</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>19,54; 33,43</t>
+          <t>77,33; 90,33</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>17,86; 29,36</t>
+          <t>72,97; 83,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>16,48; 28,78</t>
+          <t>65,2; 79,19</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>11,57; 25,67</t>
+          <t>70,53; 81,38</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>14,99; 22,34</t>
+          <t>68,47; 82,38</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>17,96; 27,29</t>
+          <t>72,44; 86,67</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>16,72; 25,4</t>
+          <t>74,01; 88,75</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>13,76; 22,2</t>
+          <t>65,39; 79,68</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>11,69; 21,49</t>
+          <t>77,85; 85,07</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>72,13; 81,81</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>74,22; 82,78</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>76,35; 85,78</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>78,62; 88,27</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>79,2; 88,45</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>72,15; 82,36</t>
         </is>
       </c>
     </row>
@@ -1700,77 +2109,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>18,9%</t>
+          <t>81,1%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>18,72%</t>
+          <t>81,71%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>16,16%</t>
+          <t>83,61%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>84,6%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>15,22%</t>
+          <t>88,27%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>21,81%</t>
+          <t>84,78%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>20,43%</t>
+          <t>84,55%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>19,87%</t>
+          <t>78,19%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>79,25%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>16,39%</t>
+          <t>80,05%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>20,38%</t>
+          <t>85,17%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>19,59%</t>
+          <t>85,79%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>18,05%</t>
+          <t>83,61%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>14,63%</t>
+          <t>82,42%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>15,81%</t>
+          <t>79,62%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>80,46%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>81,8%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>84,89%</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>87,0%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>84,19%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>83,49%</t>
         </is>
       </c>
     </row>
@@ -1783,94 +2222,2774 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,66; 21,45</t>
+          <t>78,15; 83,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,38; 21,97</t>
+          <t>79,22; 84,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14,15; 18,57</t>
+          <t>81,04; 85,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,54; 17,78</t>
+          <t>81,47; 87,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>13,0; 17,85</t>
+          <t>85,67; 90,07</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>19,55; 23,86</t>
+          <t>82,28; 87,05</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,22; 22,77</t>
+          <t>82,02; 86,77</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>17,92; 21,66</t>
+          <t>76,12; 80,14</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>12,61; 16,11</t>
+          <t>76,96; 81,47</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>14,28; 18,59</t>
+          <t>77,97; 82,02</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>18,95; 21,99</t>
+          <t>82,95; 86,98</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>17,81; 21,43</t>
+          <t>83,37; 87,63</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>16,64; 19,68</t>
+          <t>81,22; 86,0</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>13,18; 16,57</t>
+          <t>79,95; 84,74</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>14,19; 17,61</t>
+          <t>77,96; 81,2</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>78,83; 82,16</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>80,09; 83,18</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>83,14; 86,63</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>85,35; 88,54</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>82,43; 85,75</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>81,67; 85,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se siente optimista con el futuro (en desacuerdo, muy en desacuerdo) (tasa de respuesta: 98,9%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>273.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>233.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>270.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>209.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>192.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>187.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>428329</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>412116</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>438715</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>398279</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>441161</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>38654</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>39128</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>350387</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>378770</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>430421</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>439241</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>408887</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>33229</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>31625</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>778715</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>790885</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>869135</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>837521</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>850047</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>71884</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>70752</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>395561; 452685</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>372769; 440156</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>386776; 473585</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>348618; 431473</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>409800; 459555</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>36090; 40479</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>35899; 41564</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>318890; 376969</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>349652; 408615</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>396360; 452334</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>412741; 464875</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>375570; 436413</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>30449; 34925</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>28694; 33969</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>735471; 811953</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>736865; 826985</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>814422; 912119</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>783314; 880847</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>805172; 882452</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>68291; 74209</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>66524; 74293</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>187.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>201.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>309.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>265.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>334.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>369.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>274.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>249.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>417674</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>472441</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>449744</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>474981</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>479568</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>43654</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>42438</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>415763</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>414444</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>423621</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>451447</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>447848</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>41702</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>40106</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>833437</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>886885</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>873365</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>926428</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>927415</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>85356</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>82544</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>368699; 453952</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>420916; 504031</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>417801; 479759</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>392968; 522960</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>449259; 499822</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>40616; 46226</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>38389; 45393</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>386113; 441747</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>385105; 439985</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>396941; 444097</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>423501; 470296</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>416552; 468102</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>38941; 43674</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>36947; 42233</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>778943; 880334</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>831710; 933804</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>828603; 907901</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>825715; 980142</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>887402; 959327</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>81074; 88548</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>77716; 86268</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>195.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>234.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>266.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>286.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>326.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>281.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>213.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>190.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>461.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>401.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>520.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>564.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>464.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>385.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>346.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>521198</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>538701</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>581776</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>597203</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>575024</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>49056</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>52553</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>548053</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>589733</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>569043</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>616167</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>640359</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>47184</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>48562</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>1069251</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>1128435</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>1150818</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>1213369</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>1215383</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>96240</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>101115</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>479045; 548949</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>494145; 570811</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>548021; 608195</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>567941; 618453</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>522530; 607971</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>45261; 52189</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>49169; 55125</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>515817; 576994</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>554279; 618153</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>538193; 595820</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>591233; 637875</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>612679; 663796</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>44849; 49156</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>46006; 50522</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>1020891; 1115878</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>1073605; 1173283</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>1104051; 1188513</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>1174900; 1244683</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>1151457; 1256499</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>92136; 99877</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>97157; 104359</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>232.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>213.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>246.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>259.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>261.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>286.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>312.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>259.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>493.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>449.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>532.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>571.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>477.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>324.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>364.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>499239</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>538409</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>529238</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>520275</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>568628</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>46857</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>46686</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>517024</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>530204</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>540074</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>545208</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>545772</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>40906</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>44589</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1016263</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1068613</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>1069312</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>1065483</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>1114399</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>87763</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>91275</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>452965; 526928</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>509296; 564705</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>498755; 555421</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>476145; 549871</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>536981; 591544</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>43499; 49985</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>43445; 49523</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>482087; 547479</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>498776; 564502</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>513071; 565006</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>519907; 566731</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>514582; 572369</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>38138; 43415</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>42168; 46885</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>961144; 1060184</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>1022390; 1110242</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>1027791; 1108488</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>1019692; 1100895</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>1070774; 1150860</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>83448; 91738</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>87049; 94554</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>187.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>216.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>219.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>192.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>221.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>366.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>324.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>408.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>440.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>332.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>287.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>296.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>405539</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>371940</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>423700</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>420894</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>411760</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>34528</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>34482</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>372795</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>383851</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>370445</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>434081</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>437279</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>36130</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>36005</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>778334</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>755792</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>794145</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>854975</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>849040</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>70658</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>70487</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>374518; 428542</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>342698; 396101</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>400638; 442877</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>399819; 437548</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>384242; 434699</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>31431; 37126</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>31790; 37244</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>343428; 398531</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>355225; 409761</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>340157; 397907</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>410999; 450350</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>411579; 457689</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>33147; 38732</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>33150; 38384</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>738250; 814254</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>714251; 792750</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>756181; 827005</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>826986; 879136</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>813703; 883535</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>66435; 74515</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>66550; 74056</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>198.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>368.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>280.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>335.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>337.0</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>233.0</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>215.0</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>239.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>431102</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>415925</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>418487</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>433965</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>489342</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>39085</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>37904</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>504288</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>477257</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>488859</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>491997</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>545938</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>49760</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>45072</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>935390</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>893181</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>907346</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>925962</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>1035280</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>88845</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>82975</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>403085; 454332</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>382161; 444315</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>383063; 448595</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>406039; 456297</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>447957; 518151</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>35752; 41381</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>34604; 40420</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>467392; 533084</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>427175; 518896</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>450969; 520356</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>440000; 529388</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>494657; 591860</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>44737; 53648</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>40521; 49378</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>892191; 974892</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>836039; 948216</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>852289; 950645</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>867147; 974258</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>973389; 1092857</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>83667; 93435</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>77000; 87896</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1065.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>911.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1117.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>1131.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>907.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>758.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>761.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1205.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1041.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1282.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1388.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1082.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>894.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>907.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>2270.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>1952.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>2399.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>2519.0</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>1989.0</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>1652.0</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>1668.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2703080</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2749532</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>2841660</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>2845596</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>2965482</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>251834</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>253191</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>2708311</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>2774260</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>2822462</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>2978142</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>3026084</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>248911</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>245958</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>5411390</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>5523792</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>5664122</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>5823738</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>5991565</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>500746</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>499148</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2604524; 2773796</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2665758; 2833205</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>2754142; 2911658</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>2740187; 2928815</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>2878002; 3025813</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>244409; 258599</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>245612; 259839</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>2636426; 2775702</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>2694120; 2851959</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>2749011; 2891820</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>2900448; 3041471</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>2940619; 3090934</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>241783; 256030</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>238592; 252870</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>5298313; 5519015</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>5412460; 5640607</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>5545850; 5759719</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>5703527; 5942959</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>5877765; 6097620</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>490235; 510014</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>488260; 509591</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>